--- a/data/trans_camb/P12B1_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12B1_3_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,24</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-11,55</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-6,77</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-12,45</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,32</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 23,48</t>
+          <t>-2,83; 10,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 20,88</t>
+          <t>-3,39; 8,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-36,1; 13,63</t>
+          <t>-6,73; 6,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,4; 2,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 6,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,73; 3,28</t>
+          <t>-11,0; 4,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 5,56</t>
+          <t>-8,67; 6,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 7,16</t>
+          <t>-12,34; 9,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-24,46; -0,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,87; 5,03</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 6,4</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-7,64; 6,49</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,78%</t>
+          <t>59,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,93%</t>
+          <t>53,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-16,83%</t>
+          <t>-2,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-18,83%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-3,32%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-16,6%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10,86%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>-11,01%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-6,46%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-13,03%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-7,96%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-5,28%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-14,64%</t>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 39,36</t>
+          <t>-29,05; 320,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,31; 34,59</t>
+          <t>-36,05; 228,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-41,7; 23,23</t>
+          <t>-70,8; 164,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,08; 2,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,39; 8,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,44; 3,87</t>
+          <t>-51,02; 40,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,9; 7,24</t>
+          <t>-38,97; 61,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 9,08</t>
+          <t>-60,81; 78,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-28,21; -1,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-37,46; 58,71</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-28,19; 73,58</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-53,81; 77,31</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-12,2</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,31</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,52</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-7,62</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,65</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,76</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 14,69</t>
+          <t>-4,92; 1,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,71; 18,34</t>
+          <t>-4,29; 1,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 24,62</t>
+          <t>-4,34; 2,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 18,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,01; 13,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,25; 10,64</t>
+          <t>-6,79; 0,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 8,66</t>
+          <t>-5,48; 2,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 7,79</t>
+          <t>-5,21; 3,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 10,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,47; 0,42</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,7; 1,34</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 1,76</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-24,52%</t>
+          <t>-34,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-14,7%</t>
+          <t>-27,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>-16,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-21,13%</t>
+          <t>-36,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-13,94%</t>
+          <t>-9,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-14,0%</t>
+          <t>-10,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-10,37%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-35,25%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-19,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-13,39%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,95; 37,29</t>
+          <t>-69,91; 41,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,68; 42,21</t>
+          <t>-62,7; 37,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,15; 69,1</t>
+          <t>-65,36; 83,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,79; 37,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,38; 27,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,49; 23,13</t>
+          <t>-74,45; 26,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,81; 18,93</t>
+          <t>-65,78; 95,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-40,62; 16,54</t>
+          <t>-64,94; 97,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 22,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-63,39; 14,38</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-54,87; 38,7</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-53,57; 51,02</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,39</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-13,04</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-9,95</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 41,48</t>
+          <t>-1,61; 2,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 29,67</t>
+          <t>-1,33; 3,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-45,72; 31,79</t>
+          <t>-0,97; 3,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-33,08; 20,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 28,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-47,53; 24,21</t>
+          <t>-3,18; 2,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 20,64</t>
+          <t>-2,59; 2,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 23,41</t>
+          <t>-3,9; 1,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-37,5; 17,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 2,13</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 2,24</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 2,23</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>44,75%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>65,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-12,43%</t>
+          <t>88,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-20,43%</t>
+          <t>-4,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-2,11%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>-24,96%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-16,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>10,4%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>21,24%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>7,97%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,22; 118,61</t>
+          <t>-62,57; 600,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,46; 73,55</t>
+          <t>-51,86; 642,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-72,85; 78,82</t>
+          <t>-62,85; 661,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,08; 43,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,92; 62,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,09; 48,7</t>
+          <t>-58,78; 101,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,91; 42,13</t>
+          <t>-49,66; 127,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 48,93</t>
+          <t>-71,65; 87,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-52,22; 36,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-43,71; 128,12</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-34,84; 140,02</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-45,61; 140,17</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,59</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 13,41</t>
+          <t>-7,14; 1,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 14,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,34; 13,78</t>
+          <t>-7,47; 1,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 6,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 7,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,34; 5,37</t>
+          <t>-1,65; 6,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 5,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 6,13</t>
+          <t>-3,91; 5,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 4,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; 3,04</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 1,88</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,07%</t>
+          <t>-31,13%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-6,1%</t>
+          <t>-34,39%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-6,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,06%</t>
+          <t>30,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-6,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-4,78%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-8,29%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-0,38%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-15,59%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,54; 26,05</t>
+          <t>-70,58; 46,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,76; 28,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,41; 27,49</t>
+          <t>-74,4; 41,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 10,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 11,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 8,0</t>
+          <t>-17,78; 111,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 9,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 10,06</t>
+          <t>-43,52; 88,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 7,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-35,67; 50,28</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-50,98; 30,29</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,97</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 1,1</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 1,2</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-3,27; 0,92</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,76; 1,46</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 2,25</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 2,47</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 0,73</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,89; 1,19</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 0,87</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-14,14%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-11,87%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-18,55%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-8,12%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-0,51%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-6,66%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-10,63%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-5,22%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-11,57%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-45,7; 27,07</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-41,06; 30,19</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-48,56; 23,7</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-32,75; 24,62</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-25,38; 37,77</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-36,24; 41,54</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-29,8; 13,23</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-26,91; 22,75</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-34,08; 15,53</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
